--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3449343.044083343</v>
+        <v>3447455.462566942</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>118.6228795449858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.99240337009272</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.704257586254073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>196.8405671533554</v>
+        <v>37.94448079992605</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>91.82580793753526</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>86.1145648561627</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>200.9124899777291</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>289.2221598733564</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>16.91544265059222</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.461970681989554</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>8.525532102718971</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>105.273624959961</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,13 +1610,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>86.45928146503131</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>139.7568420184987</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>24.68164956070942</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>212.4576348641823</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.85948444767342</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532051</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>87.65220976161999</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>87.79869605699616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896905</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>127.8017093406822</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>272.7801080469762</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2950,7 +2950,7 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>93.41221638965536</v>
@@ -2959,16 +2959,16 @@
         <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.62163952773308</v>
+        <v>55.21598883571499</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
@@ -3016,7 +3016,7 @@
         <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>151.1243587543266</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4419,7 +4419,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.7934291343875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>543.7934291343875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>543.7934291343875</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>631.9064409481875</v>
+        <v>979.5885935818924</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.506281012309</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>635.3756428553887</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>380.6911546495019</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W7" t="n">
-        <v>380.6911546495019</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6911546495019</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6911546495019</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.549250954101</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>770.9958865030542</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>764.0503857538507</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>346.0865776520376</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018223</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.9192350259437</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259437</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5018,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5124,22 +5124,22 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113634</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5227,22 +5227,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033468</v>
+        <v>835.4163915387941</v>
       </c>
       <c r="W13" t="n">
-        <v>803.0342687942953</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X13" t="n">
-        <v>803.0342687942953</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y13" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,16 +5355,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>316.9584588710877</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N15" t="n">
         <v>1661.954360834046</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.1496160432035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.787631771461</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="X16" t="n">
-        <v>981.7980808734433</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>981.7980808734433</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,16 +5498,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,22 +5516,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>272.5660590645742</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.063975947119</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W19" t="n">
-        <v>809.2953582963253</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="X19" t="n">
-        <v>594.6916867163428</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.6916867163428</v>
+        <v>454.214523894814</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5838,16 +5838,16 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011336</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.104817265284</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O21" t="n">
-        <v>2050.644882483981</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687012</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811254</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441649</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>465.7659634441649</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.9733843006347</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -5996,22 +5996,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6072,19 +6072,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684962</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1099.383571417482</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>810.2549326310403</v>
       </c>
       <c r="V25" t="n">
-        <v>1299.155615547004</v>
+        <v>555.5704444251535</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.738445510044</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X25" t="n">
-        <v>781.7488946120263</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>560.9563154684962</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,19 +6303,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>721.5398184181058</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1028.859951698067</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O27" t="n">
         <v>2112.811595180915</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.043221886103</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6412,22 +6412,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>888.52028923552</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>633.8358010296331</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W28" t="n">
-        <v>633.8358010296331</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X28" t="n">
-        <v>633.8358010296331</v>
+        <v>616.0384892293818</v>
       </c>
       <c r="Y28" t="n">
-        <v>413.043221886103</v>
+        <v>395.2459100858516</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6546,22 +6546,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>607.5569798833405</v>
+        <v>451.9132763877638</v>
       </c>
       <c r="C31" t="n">
-        <v>494.3816622368043</v>
+        <v>451.9132763877638</v>
       </c>
       <c r="D31" t="n">
-        <v>400.0258881058394</v>
+        <v>357.5575022567988</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8736598048172</v>
+        <v>265.4052739557764</v>
       </c>
       <c r="F31" t="n">
-        <v>216.744577588278</v>
+        <v>265.4052739557764</v>
       </c>
       <c r="G31" t="n">
-        <v>216.744577588278</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>122.087434417592</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
         <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962048</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096193</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1503.284906591122</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.361283666605</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1070.704978911016</v>
+        <v>902.6804289818924</v>
       </c>
       <c r="X31" t="n">
-        <v>898.4762932943689</v>
+        <v>730.4517433652456</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.4445794322096</v>
+        <v>577.8008759366328</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M33" t="n">
-        <v>846.9127704725951</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1651.324348736746</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103136</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,49 +6859,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,52 +7169,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,19 +7351,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>306.3284467737875</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>553.0935746802515</v>
       </c>
       <c r="M42" t="n">
-        <v>1564.731711769082</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N42" t="n">
-        <v>1894.594339433115</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O42" t="n">
-        <v>2174.134404651812</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2379.156885434021</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083203</v>
@@ -7558,10 +7558,10 @@
         <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,10 +7570,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010315</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>159.1396882805841</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L45" t="n">
-        <v>880.8106280646857</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,13 +7819,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>62.91120742583797</v>
       </c>
       <c r="N12" t="n">
-        <v>297.2466435761025</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>29.47535963978228</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>38.86002301949898</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>306.1147370139962</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>297.2466435761031</v>
       </c>
       <c r="P21" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>308.1251096272032</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>91.23759968302124</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,22 +9951,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>62.79465928983205</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>274.3657496970649</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10194,25 +10194,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>202.5230052237938</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>308.1251096272034</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>5.100663089359614</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>412.600292959643</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,25 +10902,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>145.2351313103792</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>360.5026862907255</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>18.73797368291332</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>148.1350559470642</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>20.63789864135418</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>223.6742649934481</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>213.0220289556703</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>181.24937337663</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>80.78753963359652</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>85.95281337053845</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>142.5651715379184</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>13.25202052485486</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.9724957342639</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>133.8953512967693</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>164.3389472668318</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>52.03027084125505</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,10 +24652,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>13.45724435160103</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>30.5943493079819</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>12.25703796921117</v>
       </c>
     </row>
     <row r="32">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>705687.6684372855</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
@@ -26320,31 +26320,31 @@
         <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="F2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409903</v>
-      </c>
       <c r="I2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.8545409909</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="K2" t="n">
-        <v>711938.7403542224</v>
+        <v>711938.7403542228</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312485</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312485</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="N2" t="n">
         <v>718411.5486312483</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26427,31 +26427,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106724</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.39482819116</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120048.2764332303</v>
+        <v>-120048.2764332301</v>
       </c>
       <c r="C6" t="n">
-        <v>469919.6027813142</v>
+        <v>469919.6027813141</v>
       </c>
       <c r="D6" t="n">
         <v>469919.602781314</v>
       </c>
       <c r="E6" t="n">
-        <v>44978.88452850695</v>
+        <v>44881.42540253488</v>
       </c>
       <c r="F6" t="n">
-        <v>570138.9210054033</v>
+        <v>570041.4618794308</v>
       </c>
       <c r="G6" t="n">
-        <v>570138.921005403</v>
+        <v>570041.4618794307</v>
       </c>
       <c r="H6" t="n">
-        <v>570138.921005403</v>
+        <v>570041.4618794312</v>
       </c>
       <c r="I6" t="n">
-        <v>570138.9210054026</v>
+        <v>570041.4618794315</v>
       </c>
       <c r="J6" t="n">
-        <v>393715.70181281</v>
+        <v>393618.242686838</v>
       </c>
       <c r="K6" t="n">
-        <v>530808.6964200868</v>
+        <v>530790.2026821529</v>
       </c>
       <c r="L6" t="n">
-        <v>565760.141182165</v>
+        <v>565760.1411821644</v>
       </c>
       <c r="M6" t="n">
-        <v>441302.0327491948</v>
+        <v>441302.0327491944</v>
       </c>
       <c r="N6" t="n">
-        <v>576103.0479830316</v>
+        <v>576103.0479830317</v>
       </c>
       <c r="O6" t="n">
         <v>576103.0479830318</v>
       </c>
       <c r="P6" t="n">
-        <v>531940.4426801864</v>
+        <v>531940.4426801862</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26707,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.92863350108369</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>267.6150591110678</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>168.1531355799262</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.8803957658407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>168.4323246176522</v>
+        <v>327.3284109710815</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>194.4560663044425</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>166.0230784676653</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>164.3604017932785</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>34.70061289100079</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>150.3313784480356</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6835682680293</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,13 +28330,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>373.3355844763043</v>
       </c>
       <c r="N12" t="n">
-        <v>630.4412169741155</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>180.0507982277215</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022528</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>189.4354616074382</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>616.5391140644624</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>579.6103458172112</v>
       </c>
       <c r="P21" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>641.3196830252161</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>373.6013019241294</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>312.0523642458563</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>607.5603230950777</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36914,25 +36914,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>535.7175786218068</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>515.2185245587281</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014632</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>315.5250401398259</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
@@ -37166,10 +37166,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7948663576559</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37622,25 +37622,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>394.4928362664036</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>693.6972596887384</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37859,7 +37859,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>169.3134122708526</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,13 +37871,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.1480887321383</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686865</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>62.54807759626086</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>472.9319699494724</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
